--- a/biology/Virologie/Dicistroviridae/Dicistroviridae.xlsx
+++ b/biology/Virologie/Dicistroviridae/Dicistroviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dicistroviridae (ou dicistroviridés ou dicistrovirus) sont une famille de virus à ARN à simple brin de sens positif, appartenant au groupe IV. Ils infectent des insectes, parmi lesquels les pucerons, les cicadelles, les diptères, les abeilles, les fourmis. De nombreux dicistrovirus, comme Triatoma virus[2], furent initialement rangés parmi les Picornaviridae. La famille des Dicistroviridae contient le genre Cripavirus. La position du genre Iflavirus est douteuse[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicistroviridae (ou dicistroviridés ou dicistrovirus) sont une famille de virus à ARN à simple brin de sens positif, appartenant au groupe IV. Ils infectent des insectes, parmi lesquels les pucerons, les cicadelles, les diptères, les abeilles, les fourmis. De nombreux dicistrovirus, comme Triatoma virus, furent initialement rangés parmi les Picornaviridae. La famille des Dicistroviridae contient le genre Cripavirus. La position du genre Iflavirus est douteuse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Du genre Cripavirus[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Du genre Cripavirus :
 Aphid lethal paralysis virus (ALPV)
 Black Queen Cell Virus (BQCV), « virus de la cellule noire de reine », un virus de l'abeille européenne
 Cricket paralysis virus (CrPV) « Virus de la paralysie du criquet »
@@ -549,14 +563,16 @@
           <t>Dicistroviridae incertae sedis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les dicistrovirus qui suivent sont « incertae sedis », c'est-à-dire de position taxinomique incertaine, aucun genre ne leur ayant encore été assigné[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les dicistrovirus qui suivent sont « incertae sedis », c'est-à-dire de position taxinomique incertaine, aucun genre ne leur ayant encore été assigné.
 Acute bee paralysis virus (ABPV) ou (APV), un virus de l'abeille européenne
 Kashmir bee virus (KBV), « virus cachemirien de l'abeille », un virus de l'abeille européenne
 Solenopsis invicta virus 1 (SINV-1), un virus de la fourmi de feu rouge
 Taura syndrome virus (TSV), « virus du syndrome de Taura », un virus de la crevette, particulièrement de la crevette à pattes blanches
-Les espèces suivantes sont classées parmi les Dicistroviridae à titre provisoire[4] :
+Les espèces suivantes sont classées parmi les Dicistroviridae à titre provisoire :
 Acheta domesticus virus (ADV)
 Blackberry virus Z
 Cloudy wing virus
